--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hgf-Sdc1.xlsx
@@ -546,10 +546,10 @@
         <v>0.280937</v>
       </c>
       <c r="I2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J2">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N2">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P2">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q2">
-        <v>0.2100289382131111</v>
+        <v>0.2972305656194445</v>
       </c>
       <c r="R2">
-        <v>1.890260443918</v>
+        <v>2.675075090575</v>
       </c>
       <c r="S2">
-        <v>0.0001132064774007053</v>
+        <v>0.0002222506802152003</v>
       </c>
       <c r="T2">
-        <v>0.0001132064774007053</v>
+        <v>0.0002222506802152002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>0.280937</v>
       </c>
       <c r="I3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J3">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>35.558846</v>
       </c>
       <c r="O3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P3">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q3">
         <v>1.109977279855778</v>
@@ -638,10 +638,10 @@
         <v>9.989795518702001</v>
       </c>
       <c r="S3">
-        <v>0.0005982824029695794</v>
+        <v>0.0008299725331317877</v>
       </c>
       <c r="T3">
-        <v>0.0005982824029695794</v>
+        <v>0.0008299725331317874</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,40 +670,40 @@
         <v>0.280937</v>
       </c>
       <c r="I4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J4">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N4">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P4">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q4">
-        <v>0.2865567388871111</v>
+        <v>0.04467322827022222</v>
       </c>
       <c r="R4">
-        <v>2.579010649984</v>
+        <v>0.402059054432</v>
       </c>
       <c r="S4">
-        <v>0.0001544552824998211</v>
+        <v>3.340388411862674E-05</v>
       </c>
       <c r="T4">
-        <v>0.0001544552824998211</v>
+        <v>3.340388411862673E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,10 +732,10 @@
         <v>0.280937</v>
       </c>
       <c r="I5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J5">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N5">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P5">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q5">
-        <v>0.6250758662312222</v>
+        <v>0.6813787625534445</v>
       </c>
       <c r="R5">
-        <v>5.625682796081</v>
+        <v>6.132408862981</v>
       </c>
       <c r="S5">
-        <v>0.000336918510021843</v>
+        <v>0.0005094930030028771</v>
       </c>
       <c r="T5">
-        <v>0.000336918510021843</v>
+        <v>0.000509493003002877</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,40 +794,40 @@
         <v>0.280937</v>
       </c>
       <c r="I6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="J6">
-        <v>0.001329496382395751</v>
+        <v>0.001628901849080777</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N6">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P6">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q6">
-        <v>0.2349401214466667</v>
+        <v>0.04517857150277778</v>
       </c>
       <c r="R6">
-        <v>2.11446109302</v>
+        <v>0.406607143525</v>
       </c>
       <c r="S6">
-        <v>0.0001266337095038017</v>
+        <v>3.378174861228523E-05</v>
       </c>
       <c r="T6">
-        <v>0.0001266337095038017</v>
+        <v>3.378174861228523E-05</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>30.802262</v>
       </c>
       <c r="I7">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J7">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N7">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P7">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q7">
-        <v>23.02781898582978</v>
+        <v>32.58870763416112</v>
       </c>
       <c r="R7">
-        <v>207.250370872468</v>
+        <v>293.29836870745</v>
       </c>
       <c r="S7">
-        <v>0.0124120908851223</v>
+        <v>0.02436782510551055</v>
       </c>
       <c r="T7">
-        <v>0.0124120908851223</v>
+        <v>0.02436782510551054</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>30.802262</v>
       </c>
       <c r="I8">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J8">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>35.558846</v>
       </c>
       <c r="O8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P8">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q8">
         <v>121.6992101010725</v>
@@ -948,10 +948,10 @@
         <v>1095.292890909652</v>
       </c>
       <c r="S8">
-        <v>0.06559638398024668</v>
+        <v>0.09099916144306021</v>
       </c>
       <c r="T8">
-        <v>0.06559638398024668</v>
+        <v>0.09099916144306017</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>30.802262</v>
       </c>
       <c r="I9">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J9">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N9">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P9">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q9">
-        <v>31.41841675915378</v>
+        <v>4.898025114403556</v>
       </c>
       <c r="R9">
-        <v>282.765750832384</v>
+        <v>44.082226029632</v>
       </c>
       <c r="S9">
-        <v>0.01693465822886805</v>
+        <v>0.003662441011470828</v>
       </c>
       <c r="T9">
-        <v>0.01693465822886805</v>
+        <v>0.003662441011470827</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>30.802262</v>
       </c>
       <c r="I10">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J10">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N10">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P10">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q10">
-        <v>68.53405070008955</v>
+        <v>74.70716625224512</v>
       </c>
       <c r="R10">
-        <v>616.806456300806</v>
+        <v>672.364496270206</v>
       </c>
       <c r="S10">
-        <v>0.0369401403814465</v>
+        <v>0.05586141008717758</v>
       </c>
       <c r="T10">
-        <v>0.0369401403814465</v>
+        <v>0.05586141008717757</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>30.802262</v>
       </c>
       <c r="I11">
-        <v>0.1457675418282608</v>
+        <v>0.1785947081647151</v>
       </c>
       <c r="J11">
-        <v>0.1457675418282608</v>
+        <v>0.178594708164715</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N11">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P11">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q11">
-        <v>25.75911031694667</v>
+        <v>4.953431538794444</v>
       </c>
       <c r="R11">
-        <v>231.83199285252</v>
+        <v>44.58088384915</v>
       </c>
       <c r="S11">
-        <v>0.01388426835257723</v>
+        <v>0.003703870517495902</v>
       </c>
       <c r="T11">
-        <v>0.01388426835257723</v>
+        <v>0.003703870517495902</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H12">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J12">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N12">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P12">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q12">
-        <v>68.20268139883488</v>
+        <v>75.14550855103612</v>
       </c>
       <c r="R12">
-        <v>613.8241325895139</v>
+        <v>676.309576959325</v>
       </c>
       <c r="S12">
-        <v>0.03676153094013365</v>
+        <v>0.05618917541599012</v>
       </c>
       <c r="T12">
-        <v>0.03676153094013365</v>
+        <v>0.0561891754159901</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H13">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J13">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>35.558846</v>
       </c>
       <c r="O13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P13">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q13">
-        <v>360.4428390774162</v>
+        <v>280.6232495000224</v>
       </c>
       <c r="R13">
-        <v>3243.985551696746</v>
+        <v>2525.609245500202</v>
       </c>
       <c r="S13">
-        <v>0.1942801999734927</v>
+        <v>0.2098327537600318</v>
       </c>
       <c r="T13">
-        <v>0.1942801999734927</v>
+        <v>0.2098327537600317</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H14">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J14">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N14">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P14">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q14">
-        <v>93.05354838853688</v>
+        <v>11.29423701760355</v>
       </c>
       <c r="R14">
-        <v>837.481935496832</v>
+        <v>101.648133158432</v>
       </c>
       <c r="S14">
-        <v>0.05015625233515908</v>
+        <v>0.00844513367742915</v>
       </c>
       <c r="T14">
-        <v>0.05015625233515908</v>
+        <v>0.008445133677429146</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H15">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J15">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N15">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P15">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q15">
-        <v>202.9808392946847</v>
+        <v>172.2654381834701</v>
       </c>
       <c r="R15">
-        <v>1826.827553652163</v>
+        <v>1550.388943651231</v>
       </c>
       <c r="S15">
-        <v>0.1094075225627906</v>
+        <v>0.1288094672701492</v>
       </c>
       <c r="T15">
-        <v>0.1094075225627906</v>
+        <v>0.1288094672701492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>30.40955033333333</v>
+        <v>23.67539566666666</v>
       </c>
       <c r="H16">
-        <v>91.22865099999999</v>
+        <v>71.02618699999999</v>
       </c>
       <c r="I16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="J16">
-        <v>0.4317272608283866</v>
+        <v>0.4118171950916292</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N16">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P16">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q16">
-        <v>76.29208806727333</v>
+        <v>11.42199734441944</v>
       </c>
       <c r="R16">
-        <v>686.6287926054599</v>
+        <v>102.797976099775</v>
       </c>
       <c r="S16">
-        <v>0.04112175501681055</v>
+        <v>0.008540664968028994</v>
       </c>
       <c r="T16">
-        <v>0.04112175501681055</v>
+        <v>0.008540664968028992</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H17">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J17">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N17">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P17">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q17">
-        <v>0.6582347608075557</v>
+        <v>1.052129569627778</v>
       </c>
       <c r="R17">
-        <v>5.924112847268001</v>
+        <v>9.46916612665</v>
       </c>
       <c r="S17">
-        <v>0.0003547912930841426</v>
+        <v>0.0007867175841655844</v>
       </c>
       <c r="T17">
-        <v>0.0003547912930841426</v>
+        <v>0.0007867175841655841</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H18">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J18">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>35.558846</v>
       </c>
       <c r="O18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P18">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q18">
-        <v>3.47869029631689</v>
+        <v>3.929070737787111</v>
       </c>
       <c r="R18">
-        <v>31.308212666852</v>
+        <v>35.361636640084</v>
       </c>
       <c r="S18">
-        <v>0.001875028640169867</v>
+        <v>0.002937916705393162</v>
       </c>
       <c r="T18">
-        <v>0.001875028640169867</v>
+        <v>0.002937916705393161</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H19">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J19">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N19">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P19">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q19">
-        <v>0.8980743705315557</v>
+        <v>0.1581332133048889</v>
       </c>
       <c r="R19">
-        <v>8.082669334784001</v>
+        <v>1.423198919744</v>
       </c>
       <c r="S19">
-        <v>0.0004840658472908784</v>
+        <v>0.0001182422613514946</v>
       </c>
       <c r="T19">
-        <v>0.0004840658472908784</v>
+        <v>0.0001182422613514945</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H20">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J20">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N20">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P20">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q20">
-        <v>1.958999873045111</v>
+        <v>2.411928069055778</v>
       </c>
       <c r="R20">
-        <v>17.630998857406</v>
+        <v>21.707352621502</v>
       </c>
       <c r="S20">
-        <v>0.001055909136820184</v>
+        <v>0.001803491013316947</v>
       </c>
       <c r="T20">
-        <v>0.001055909136820184</v>
+        <v>0.001803491013316947</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.2934873333333334</v>
+        <v>0.3314846666666666</v>
       </c>
       <c r="H21">
-        <v>0.8804620000000001</v>
+        <v>0.9944539999999999</v>
       </c>
       <c r="I21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177186</v>
       </c>
       <c r="J21">
-        <v>0.004166667415957768</v>
+        <v>0.005765947381177185</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N21">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P21">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q21">
-        <v>0.7363068916133335</v>
+        <v>0.1599220150611111</v>
       </c>
       <c r="R21">
-        <v>6.626762024520001</v>
+        <v>1.43929813555</v>
       </c>
       <c r="S21">
-        <v>0.000396872498592696</v>
+        <v>0.0001195798169499977</v>
       </c>
       <c r="T21">
-        <v>0.000396872498592696</v>
+        <v>0.0001195798169499977</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H22">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J22">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.242804666666667</v>
+        <v>3.173991666666667</v>
       </c>
       <c r="N22">
-        <v>6.728414</v>
+        <v>9.521975000000001</v>
       </c>
       <c r="O22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="P22">
-        <v>0.08514989502770016</v>
+        <v>0.1364420332266311</v>
       </c>
       <c r="Q22">
-        <v>65.87755010126889</v>
+        <v>73.3893982097139</v>
       </c>
       <c r="R22">
-        <v>592.8979509114199</v>
+        <v>660.504583887425</v>
       </c>
       <c r="S22">
-        <v>0.03550827543195937</v>
+        <v>0.0548760644407497</v>
       </c>
       <c r="T22">
-        <v>0.03550827543195937</v>
+        <v>0.05487606444074968</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H23">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J23">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>35.558846</v>
       </c>
       <c r="O23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807429</v>
       </c>
       <c r="P23">
-        <v>0.4500067927161076</v>
+        <v>0.5095288789807428</v>
       </c>
       <c r="Q23">
-        <v>348.1548042240423</v>
+        <v>274.0652342577976</v>
       </c>
       <c r="R23">
-        <v>3133.39323801638</v>
+        <v>2466.587108320178</v>
       </c>
       <c r="S23">
-        <v>0.1876568977192288</v>
+        <v>0.204929074539126</v>
       </c>
       <c r="T23">
-        <v>0.1876568977192287</v>
+        <v>0.204929074539126</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H24">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J24">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>3.060010666666667</v>
+        <v>0.4770453333333333</v>
       </c>
       <c r="N24">
-        <v>9.180032000000001</v>
+        <v>1.431136</v>
       </c>
       <c r="O24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="P24">
-        <v>0.1161757824579356</v>
+        <v>0.02050699625485553</v>
       </c>
       <c r="Q24">
-        <v>89.8812139103289</v>
+        <v>11.03029673951644</v>
       </c>
       <c r="R24">
-        <v>808.93092519296</v>
+        <v>99.272670655648</v>
       </c>
       <c r="S24">
-        <v>0.0484463507641178</v>
+        <v>0.00824777542048543</v>
       </c>
       <c r="T24">
-        <v>0.04844635076411779</v>
+        <v>0.008247775420485428</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H25">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J25">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>6.674904333333333</v>
+        <v>7.276137666666667</v>
       </c>
       <c r="N25">
-        <v>20.024713</v>
+        <v>21.828413</v>
       </c>
       <c r="O25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="P25">
-        <v>0.2534181472646931</v>
+        <v>0.3127831202907618</v>
       </c>
       <c r="Q25">
-        <v>196.0609192479878</v>
+        <v>168.2396870337399</v>
       </c>
       <c r="R25">
-        <v>1764.54827323189</v>
+        <v>1514.157183303659</v>
       </c>
       <c r="S25">
-        <v>0.1056776566736139</v>
+        <v>0.1257992589171152</v>
       </c>
       <c r="T25">
-        <v>0.1056776566736139</v>
+        <v>0.1257992589171152</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>29.37284333333333</v>
+        <v>23.12211433333333</v>
       </c>
       <c r="H26">
-        <v>88.11852999999999</v>
+        <v>69.366343</v>
       </c>
       <c r="I26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="J26">
-        <v>0.4170090335449991</v>
+        <v>0.4021932475133977</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>2.50882</v>
+        <v>0.4824416666666667</v>
       </c>
       <c r="N26">
-        <v>7.52646</v>
+        <v>1.447325</v>
       </c>
       <c r="O26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="P26">
-        <v>0.09524938253356351</v>
+        <v>0.02073897124700851</v>
       </c>
       <c r="Q26">
-        <v>73.69117681153334</v>
+        <v>11.15507137583056</v>
       </c>
       <c r="R26">
-        <v>663.2205913038</v>
+        <v>100.395642382475</v>
       </c>
       <c r="S26">
-        <v>0.03971985295607924</v>
+        <v>0.008341074195921333</v>
       </c>
       <c r="T26">
-        <v>0.03971985295607924</v>
+        <v>0.008341074195921333</v>
       </c>
     </row>
   </sheetData>
